--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/JcicAtomMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/JcicAtomMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23D4707-42BB-40D0-A54C-AEA8653171CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5A70D-58C5-4710-AEE8-2840FBE1C2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>建檔人員</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -184,13 +180,16 @@
   <si>
     <t>FunctionKey</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,10 +395,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -411,9 +410,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -426,9 +422,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,9 +438,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -465,15 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -485,9 +466,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -510,9 +488,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,9 +528,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,26 +563,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,26 +598,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -833,108 +777,108 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="17" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="13" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="33" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="30" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
+      <c r="D7" s="11"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -953,403 +897,403 @@
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="18">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="21">
+        <v>6</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="21">
+        <v>45</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="21">
+        <v>300</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>5</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="21">
+        <v>200</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>6</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>7</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="21">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="29">
+      <c r="D16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="21">
         <v>6</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="18">
-        <v>2</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="29">
-        <v>45</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="18">
-        <v>3</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="24">
-        <v>300</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="18">
-        <v>4</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="24">
-        <v>3</v>
-      </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18">
-        <v>5</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="24">
-        <v>200</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18">
-        <v>6</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="24">
-        <v>6</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="18">
-        <v>8</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="18">
-        <v>9</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="24">
-        <v>6</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="18"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="18"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="18"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="18"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="18"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="18"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="18"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="18"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="18"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="18"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="24"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="18"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="24"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="24"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="18"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="18"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="18"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="18"/>
-      <c r="B38" s="25"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="24"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="24"/>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="18"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="24"/>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
-      <c r="G41" s="25"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="24"/>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="18"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="24"/>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="18"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="18"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="18"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="18"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="21"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="21"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="21"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="22"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="21"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="22"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="21"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="21"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1376,7 +1320,7 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1384,7 +1328,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1395,8 +1339,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="19"/>
+    <row r="10" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
